--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B9894-B86D-4B96-B10D-5AFFBB41F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C4FC7C-E4C0-4E01-8ABB-A55CE35229C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -65,10 +65,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B40" sqref="B40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,6 +441,10 @@
       <c r="C2">
         <v>70</v>
       </c>
+      <c r="D2">
+        <f>PRODUCT(B2:C2)</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -444,6 +456,10 @@
       <c r="C3">
         <v>90</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">PRODUCT(B3:C3)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -455,6 +471,10 @@
       <c r="C4">
         <v>50</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -466,6 +486,10 @@
       <c r="C5">
         <v>60</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -477,6 +501,10 @@
       <c r="C6">
         <v>85</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -488,6 +516,10 @@
       <c r="C7">
         <v>100</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -499,6 +531,10 @@
       <c r="C8">
         <v>65</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -510,6 +546,10 @@
       <c r="C9">
         <v>75</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -520,6 +560,24 @@
       </c>
       <c r="C10">
         <v>75</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <f>SUM(B2:B10)</f>
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <f>SUM(C2:C10)</f>
+        <v>670</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM(D2:D10)</f>
+        <v>2440</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -1,89 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\py\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C4FC7C-E4C0-4E01-8ABB-A55CE35229C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>sweet ham</t>
-  </si>
-  <si>
-    <t>chicken pops</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>siomai</t>
-  </si>
-  <si>
-    <t>tender tocino</t>
-  </si>
-  <si>
-    <t>fatless tocino</t>
-  </si>
-  <si>
-    <t>shanghai</t>
-  </si>
-  <si>
-    <t>meaty burger</t>
-  </si>
-  <si>
-    <t>chicken tocino</t>
-  </si>
-  <si>
-    <t>pork tocino</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,182 +416,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:D40"/>
+      <selection activeCell="I5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col width="27.90625" customWidth="1" min="1" max="1"/>
+    <col width="15.7265625" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Total Item Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sweet ham</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>70</v>
       </c>
       <c r="D2">
         <f>PRODUCT(B2:C2)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v/>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:B99)</f>
+        <v/>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(D2:D99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>chicken pops</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <f>PRODUCT(B3:C3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>siomai</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <f>PRODUCT(B4:C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tender tocino</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <f>PRODUCT(B5:C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fatless tocino</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <f>PRODUCT(B6:C6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shanghai</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <f>PRODUCT(B7:C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>meaty burger</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C8" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <f>PRODUCT(B8:C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>chicken tocino</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <f>PRODUCT(B9:C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pork tocino</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <f>PRODUCT(B10:C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cheesedog</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C11" t="n">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <f>PRODUCT(B11:C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pork sisig</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
         <v>90</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">PRODUCT(B3:C3)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D12">
+        <f>PRODUCT(B12:C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pork tapa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <f>PRODUCT(B13:C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pork bbq stick</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <f>PRODUCT(B14:C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pork bbq</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <f>PRODUCT(B15:C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>skinless</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <f>PRODUCT(B16:C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>beef tapa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="C17" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <f>SUM(B2:B10)</f>
-        <v>34</v>
-      </c>
-      <c r="C40">
-        <f>SUM(C2:C10)</f>
-        <v>670</v>
-      </c>
-      <c r="D40" s="1">
-        <f>SUM(D2:D10)</f>
-        <v>2440</v>
+      <c r="D17">
+        <f>PRODUCT(B17:C17)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="38.6328125" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>